--- a/biology/Médecine/Musée_national_de_la_médecine/Musée_national_de_la_médecine.xlsx
+++ b/biology/Médecine/Musée_national_de_la_médecine/Musée_national_de_la_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_national_de_la_m%C3%A9decine</t>
+          <t>Musée_national_de_la_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée national de la médecine (arabe : المتحف الوطني للطب) est un musée de Tunis (Tunisie) créé le 8 novembre 1997. Il occupe une partie du pavillon I de l'ancienne faculté de médecine de Tunis.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_national_de_la_m%C3%A9decine</t>
+          <t>Musée_national_de_la_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le musée expose une variété d'instruments et de documents historiques concernant la médecine en Tunisie :
 des instruments de chirurgie datant des IXe et Xe siècles ;
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_national_de_la_m%C3%A9decine</t>
+          <t>Musée_national_de_la_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Horaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée est ouvert gratuitement aux visiteurs, du mardi au dimanche, de 11 heures à 17 heures. En été et pendant le mois du ramadan, le musée est ouvert de 9 heures à 14 heures.
 </t>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_national_de_la_m%C3%A9decine</t>
+          <t>Musée_national_de_la_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(ar) « Musée national de la médecine »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?) [PDF], sur santetunisie.rns.tn.
  Portail des musées   Portail de la médecine   Portail de Tunis                   </t>
